--- a/biology/Zoologie/Ephippiger_ephippiger/Ephippiger_ephippiger.xlsx
+++ b/biology/Zoologie/Ephippiger_ephippiger/Ephippiger_ephippiger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Éphippigère des vignes
 Ephippiger ephippiger, l’Éphippigère des vignes, est une espèce d'insectes orthoptères de la famille des Tettigoniidae.On l'appelle aussi porte-selle, porte-hotte ; tizi, jeudi ou pantigue dans le Sud de la France.Le nom vernaculaire boudrague qui lui est aussi attribué dans le Midi désigne diverses espèces d'éphippigères ventrues. Une autre appellation est « patangane » (terme catalan), employée dans les Pyrénées-Orientales…
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Ephippiger ephippiger a été décrite pour la première fois en 1784 par le naturaliste allemand Johann Fiebig (d) sous le protonyme de Gryllus ephippiger[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Ephippiger ephippiger a été décrite pour la première fois en 1784 par le naturaliste allemand Johann Fiebig (d) sous le protonyme de Gryllus ephippiger
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se rencontre en Europe, sauf le Nord-Ouest de la France (Somme, Pas-de-Calais, Nord), le Benelux et les îles Britanniques.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Orthoptera Species File (28 mars 2010)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Orthoptera Species File (28 mars 2010) :
 Ephippiger ephippiger balkanicus Andreeva 1985
 Ephippiger ephippiger cunii Bolívar, 1877
 Ephippiger ephippiger ephippiger (Fiebig, 1784)
@@ -611,7 +629,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gryllus ephippiger Fiebig, 1784 ;
 Ephippiger vitium Serville, 1831 ;
